--- a/Application Bs4/Data/Calcule part cessionaire avec CSR SNV.xlsx
+++ b/Application Bs4/Data/Calcule part cessionaire avec CSR SNV.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\SBR for Github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3AAD29-5C81-4C35-9D6B-4D83275A0F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ZC-30-12-2022" sheetId="3" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="PPNA">Parametres!$B$5</definedName>
     <definedName name="RS_moy">Parametres!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -344,16 +343,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,11 +384,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -456,7 +457,7 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -465,11 +466,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,31 +492,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D1C8B6A-5003-47D5-B66F-06B779526C88}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,14 +828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C349F-53EF-4C61-A7EE-8098B2CF9945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
@@ -845,17 +846,17 @@
     <col min="7" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
@@ -872,7 +873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -892,7 +893,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -912,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -932,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -952,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -972,7 +973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -992,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -1012,7 +1013,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -1032,7 +1033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1052,7 +1053,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1152,7 +1153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1192,7 +1193,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1292,7 +1293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -1392,7 +1393,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -1441,16 +1442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1486,7 +1487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -1562,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -1714,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -1752,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1959,21 +1960,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D556E3-E239-45F4-AA09-28A2BB6EB258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>6413.9599799999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>-845.37305000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I4" s="20" t="s">
         <v>87</v>
       </c>
@@ -2012,7 +2013,7 @@
         <v>5568.5869299999995</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,7 +2029,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2051,20 +2052,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079486DE-93A0-4346-8A92-6A8A304A65B6}">
-  <dimension ref="A2:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2096,7 +2097,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>1204.1497057300294</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2176,7 +2177,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2221,7 +2222,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>1</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>205.07998505733062</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
@@ -2468,7 +2469,7 @@
         <v>36.604832747057657</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2513,7 +2514,7 @@
         <v>0.19701630899331987</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -2558,7 +2559,7 @@
         <v>0.14371258349961977</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2576,7 +2577,10 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
@@ -2584,6 +2588,9 @@
         <f>'BE cedes'!J4-Adj!B16</f>
         <v>5467.0750305063402</v>
       </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2591,19 +2598,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C52F23-C8DC-490E-BF32-791E554BE078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -2623,7 +2630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2651,7 +2658,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2659,7 +2666,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2667,7 +2674,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2676,7 +2683,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2684,7 +2691,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>84</v>
       </c>
@@ -2707,14 +2714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79C3C06-1BC5-4CA4-8A9C-B457B2FA0948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -2724,11 +2731,11 @@
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
@@ -2742,12 +2749,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="33">
-        <v>1.01</v>
+      <c r="B3" s="31">
+        <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>97</v>
@@ -2762,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>91</v>
       </c>
@@ -2783,13 +2790,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B5" s="28">
         <f>B2*B3*B4</f>
-        <v>-17076.315819184758</v>
+        <v>-16907.243385331443</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>99</v>
@@ -2804,27 +2811,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>1</v>
       </c>
       <c r="E7" s="29">
         <f>E3*B5*B5</f>
-        <v>291600561.95653963</v>
+        <v>285854878.89083385</v>
       </c>
       <c r="F7" s="29">
         <f>F3*B5*B10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>1</v>
       </c>
       <c r="E8" s="29">
@@ -2836,7 +2843,7 @@
         <v>38766232429.708282</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>94</v>
       </c>
@@ -2845,7 +2852,7 @@
         <v>196891.42294601936</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>95</v>
       </c>
@@ -2858,10 +2865,10 @@
       </c>
       <c r="E10" s="30">
         <f>SQRT(SUM(E7:F8))</f>
-        <v>197630.5467068915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>197616.00974769</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>96</v>
       </c>
